--- a/csv/friends.xlsx
+++ b/csv/friends.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18086_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 4/Database/MUIC-restaurant-guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claben\OneDrive - Hewlett Packard Enterprise\Uni\3. Semester\DB\Project\MUIC-restaurant-guide\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{91D31297-7766-4C99-8760-727AF98D9122}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D445B0AE-9C20-4AEF-8E58-67240DAA5E84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{1A7DA138-8379-452F-A582-56934E2DB0E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +75,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,14 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CF1AD-C8CF-4AB3-91AA-564065B2985B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -406,7 +405,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -414,7 +413,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -422,7 +421,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -430,7 +429,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -441,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -465,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,6 +505,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DC82BB9D13200C4A8C40DFD5CFF2538E" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b2a8341c6959f9f168a731bc5ed52d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7f309e919d4988f782f725d344996ea" ns3:_="">
     <xsd:import namespace="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
@@ -675,15 +683,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -691,6 +690,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A17585C2-D82A-4C14-A576-180C17AD9BF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{214DA274-2475-40D3-AC7E-387ABA0304B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -708,14 +715,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A17585C2-D82A-4C14-A576-180C17AD9BF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB1712C-A639-4BFA-8763-E2BEC8E066D3}">
   <ds:schemaRefs>
